--- a/2022 Report/FF_2022.xlsx
+++ b/2022 Report/FF_2022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brenton/Documents/Fantasy Football/2022 Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brenton/Documents/Fantasy-Football/2022 Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="21440" windowHeight="14840" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="7420" yWindow="460" windowWidth="18180" windowHeight="15540" tabRatio="500" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,9 @@
     <sheet name="3-wk scores" sheetId="3" r:id="rId17"/>
     <sheet name="sims" sheetId="2" r:id="rId18"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'H2H raw'!$A$1:$J$91</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="267">
   <si>
     <t>Week 1</t>
   </si>
@@ -886,6 +889,12 @@
   </si>
   <si>
     <t xml:space="preserve">Movin' On Up </t>
+  </si>
+  <si>
+    <t>OwnerW</t>
+  </si>
+  <si>
+    <t>OwnerL</t>
   </si>
 </sst>
 </file>
@@ -1818,6 +1827,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1868,36 +1907,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3688,7 +3697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -3701,10 +3710,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="310" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="297"/>
+      <c r="C2" s="311"/>
     </row>
     <row r="3" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="213" t="s">
@@ -3876,12 +3885,12 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="E20" s="284" t="s">
+      <c r="E20" s="298" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="285"/>
-      <c r="G20" s="285"/>
-      <c r="H20" s="286"/>
+      <c r="F20" s="299"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="300"/>
     </row>
     <row r="21" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="E21" s="205" t="s">
@@ -4408,18 +4417,18 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C14"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="298" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="286"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="300"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="216" t="s">
@@ -4622,8 +4631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4650,15 +4659,15 @@
     </row>
     <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="298" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="286"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="300"/>
       <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -6076,7 +6085,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection sqref="A1:D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7943,23 +7952,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="298" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="286"/>
-      <c r="K2" s="284" t="s">
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="300"/>
+      <c r="K2" s="298" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="285"/>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="286"/>
+      <c r="L2" s="299"/>
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="300"/>
     </row>
     <row r="3" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="125" t="s">
@@ -8503,15 +8512,15 @@
     </row>
     <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="286"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="300"/>
       <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.2">
@@ -8802,15 +8811,15 @@
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="87"/>
-      <c r="B15" s="284" t="s">
+      <c r="B15" s="298" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="285"/>
-      <c r="D15" s="285"/>
-      <c r="E15" s="285"/>
-      <c r="F15" s="285"/>
-      <c r="G15" s="285"/>
-      <c r="H15" s="286"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="299"/>
+      <c r="F15" s="299"/>
+      <c r="G15" s="299"/>
+      <c r="H15" s="300"/>
       <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -9777,13 +9786,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="87"/>
-      <c r="B19" s="298" t="s">
+      <c r="B19" s="312" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="300"/>
+      <c r="C19" s="313"/>
+      <c r="D19" s="313"/>
+      <c r="E19" s="313"/>
+      <c r="F19" s="314"/>
       <c r="G19" s="87"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -10095,18 +10104,18 @@
     </row>
     <row r="2" spans="2:13" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="87"/>
-      <c r="C2" s="284" t="s">
+      <c r="C2" s="298" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="285"/>
-      <c r="I2" s="285"/>
-      <c r="J2" s="285"/>
-      <c r="K2" s="285"/>
-      <c r="L2" s="286"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
+      <c r="J2" s="299"/>
+      <c r="K2" s="299"/>
+      <c r="L2" s="300"/>
       <c r="M2" s="87"/>
     </row>
     <row r="3" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10579,18 +10588,18 @@
     </row>
     <row r="17" spans="2:13" ht="19" x14ac:dyDescent="0.25">
       <c r="B17" s="87"/>
-      <c r="C17" s="284" t="s">
+      <c r="C17" s="298" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="285"/>
-      <c r="E17" s="285"/>
-      <c r="F17" s="285"/>
-      <c r="G17" s="285"/>
-      <c r="H17" s="285"/>
-      <c r="I17" s="285"/>
-      <c r="J17" s="285"/>
-      <c r="K17" s="285"/>
-      <c r="L17" s="286"/>
+      <c r="D17" s="299"/>
+      <c r="E17" s="299"/>
+      <c r="F17" s="299"/>
+      <c r="G17" s="299"/>
+      <c r="H17" s="299"/>
+      <c r="I17" s="299"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="300"/>
       <c r="M17" s="87"/>
     </row>
     <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.2">
@@ -11116,13 +11125,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="298" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="286"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="300"/>
     </row>
     <row r="3" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B3" s="106" t="s">
@@ -12403,8 +12412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12450,14 +12459,14 @@
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="87"/>
-      <c r="B3" s="287" t="s">
+      <c r="B3" s="301" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="289"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="303"/>
       <c r="H3" s="87"/>
       <c r="I3" s="87"/>
       <c r="J3" s="87"/>
@@ -12485,11 +12494,11 @@
         <v>255</v>
       </c>
       <c r="H4" s="87"/>
-      <c r="I4" s="290" t="s">
+      <c r="I4" s="304" t="s">
         <v>256</v>
       </c>
-      <c r="J4" s="291"/>
-      <c r="K4" s="301"/>
+      <c r="J4" s="305"/>
+      <c r="K4" s="284"/>
       <c r="L4" s="87"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -12513,10 +12522,10 @@
         <v>57</v>
       </c>
       <c r="H5" s="87"/>
-      <c r="I5" s="307" t="s">
+      <c r="I5" s="290" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="308">
+      <c r="J5" s="291">
         <v>92.96</v>
       </c>
       <c r="K5" s="87"/>
@@ -12543,10 +12552,10 @@
         <v>56</v>
       </c>
       <c r="H6" s="87"/>
-      <c r="I6" s="309" t="s">
+      <c r="I6" s="292" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="310">
+      <c r="J6" s="293">
         <v>159.18</v>
       </c>
       <c r="K6" s="87"/>
@@ -12573,10 +12582,10 @@
         <v>56</v>
       </c>
       <c r="H7" s="87"/>
-      <c r="I7" s="311" t="s">
+      <c r="I7" s="294" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="312">
+      <c r="J7" s="295">
         <v>94.26</v>
       </c>
       <c r="K7" s="87"/>
@@ -12603,13 +12612,13 @@
         <v>164</v>
       </c>
       <c r="H8" s="87"/>
-      <c r="I8" s="305" t="s">
+      <c r="I8" s="288" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="306">
+      <c r="J8" s="289">
         <v>105.58</v>
       </c>
-      <c r="K8" s="302"/>
+      <c r="K8" s="285"/>
       <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -12634,8 +12643,8 @@
       </c>
       <c r="H9" s="87"/>
       <c r="I9" s="155"/>
-      <c r="J9" s="304"/>
-      <c r="K9" s="303"/>
+      <c r="J9" s="287"/>
+      <c r="K9" s="286"/>
       <c r="L9" s="87"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -12659,11 +12668,11 @@
         <v>57</v>
       </c>
       <c r="H10" s="87"/>
-      <c r="I10" s="290" t="s">
+      <c r="I10" s="304" t="s">
         <v>257</v>
       </c>
-      <c r="J10" s="291"/>
-      <c r="K10" s="302"/>
+      <c r="J10" s="305"/>
+      <c r="K10" s="285"/>
       <c r="L10" s="87"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -12687,13 +12696,13 @@
         <v>57</v>
       </c>
       <c r="H11" s="87"/>
-      <c r="I11" s="313" t="s">
+      <c r="I11" s="296" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="314">
+      <c r="J11" s="297">
         <v>89.38</v>
       </c>
-      <c r="K11" s="302"/>
+      <c r="K11" s="285"/>
       <c r="L11" s="87"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -12717,13 +12726,13 @@
         <v>56</v>
       </c>
       <c r="H12" s="87"/>
-      <c r="I12" s="305" t="s">
+      <c r="I12" s="288" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="306">
+      <c r="J12" s="289">
         <v>89.42</v>
       </c>
-      <c r="K12" s="303"/>
+      <c r="K12" s="286"/>
       <c r="L12" s="87"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -12911,11 +12920,11 @@
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="298" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="285"/>
-      <c r="D2" s="286"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="300"/>
       <c r="E2" s="87"/>
       <c r="F2" s="87"/>
     </row>
@@ -13099,12 +13108,12 @@
     </row>
     <row r="16" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="87"/>
-      <c r="B16" s="292" t="s">
+      <c r="B16" s="306" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="292"/>
-      <c r="D16" s="292"/>
-      <c r="E16" s="292"/>
+      <c r="C16" s="306"/>
+      <c r="D16" s="306"/>
+      <c r="E16" s="306"/>
       <c r="F16" s="87"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -13168,7 +13177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
@@ -13203,24 +13212,24 @@
     </row>
     <row r="2" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="298" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="286"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="300"/>
       <c r="H2" s="87"/>
       <c r="K2" s="87"/>
-      <c r="L2" s="284" t="s">
+      <c r="L2" s="298" t="s">
         <v>252</v>
       </c>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="286"/>
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="300"/>
       <c r="R2" s="87"/>
     </row>
     <row r="3" spans="1:18" ht="32" x14ac:dyDescent="0.2">
@@ -15088,7 +15097,7 @@
         <v>123.98</v>
       </c>
       <c r="G80">
-        <f t="shared" ref="G80:G111" si="4">SUM(E80:F80)</f>
+        <f t="shared" ref="G80:G95" si="4">SUM(E80:F80)</f>
         <v>248.66000000000003</v>
       </c>
     </row>
@@ -15453,20 +15462,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -15491,8 +15500,14 @@
       <c r="H1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -15519,8 +15534,14 @@
         <f t="shared" ref="H2:H33" si="1">E2-F2</f>
         <v>59.720000000000013</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -15547,8 +15568,14 @@
         <f t="shared" si="1"/>
         <v>27.879999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -15575,8 +15602,14 @@
         <f t="shared" si="1"/>
         <v>15.420000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -15603,8 +15636,14 @@
         <f t="shared" si="1"/>
         <v>62.539999999999992</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -15631,8 +15670,14 @@
         <f t="shared" si="1"/>
         <v>3.2399999999999949</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -15659,8 +15704,14 @@
         <f t="shared" si="1"/>
         <v>9.0799999999999983</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -15687,8 +15738,14 @@
         <f t="shared" si="1"/>
         <v>41.760000000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -15715,8 +15772,14 @@
         <f t="shared" si="1"/>
         <v>64.14</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -15743,8 +15806,14 @@
         <f t="shared" si="1"/>
         <v>7.6799999999999926</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -15771,8 +15840,14 @@
         <f t="shared" si="1"/>
         <v>3.7199999999999989</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -15799,8 +15874,14 @@
         <f t="shared" si="1"/>
         <v>4.3599999999999852</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -15827,8 +15908,14 @@
         <f t="shared" si="1"/>
         <v>43.039999999999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -15855,8 +15942,14 @@
         <f t="shared" si="1"/>
         <v>39.480000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -15883,8 +15976,14 @@
         <f t="shared" si="1"/>
         <v>18.079999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -15911,8 +16010,14 @@
         <f t="shared" si="1"/>
         <v>37.72</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -15939,8 +16044,14 @@
         <f t="shared" si="1"/>
         <v>15.539999999999992</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -15967,8 +16078,14 @@
         <f t="shared" si="1"/>
         <v>4.1599999999999966</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -15995,8 +16112,14 @@
         <f t="shared" si="1"/>
         <v>15.64</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -16023,8 +16146,14 @@
         <f t="shared" si="1"/>
         <v>16.679999999999993</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -16051,8 +16180,14 @@
         <f t="shared" si="1"/>
         <v>65.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -16079,8 +16214,14 @@
         <f t="shared" si="1"/>
         <v>51.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -16107,8 +16248,14 @@
         <f t="shared" si="1"/>
         <v>0.70000000000000284</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -16135,8 +16282,14 @@
         <f t="shared" si="1"/>
         <v>66.88000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -16163,8 +16316,14 @@
         <f t="shared" si="1"/>
         <v>12.920000000000016</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -16191,8 +16350,14 @@
         <f t="shared" si="1"/>
         <v>15.079999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -16219,8 +16384,14 @@
         <f t="shared" si="1"/>
         <v>52.94</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -16247,8 +16418,14 @@
         <f t="shared" si="1"/>
         <v>10.920000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -16275,8 +16452,14 @@
         <f t="shared" si="1"/>
         <v>68.699999999999989</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -16303,8 +16486,14 @@
         <f t="shared" si="1"/>
         <v>21.240000000000009</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2022</v>
       </c>
@@ -16331,8 +16520,14 @@
         <f t="shared" si="1"/>
         <v>12.680000000000007</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2022</v>
       </c>
@@ -16359,8 +16554,14 @@
         <f t="shared" si="1"/>
         <v>8.0400000000000063</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -16387,8 +16588,14 @@
         <f t="shared" si="1"/>
         <v>8.7199999999999989</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -16415,8 +16622,14 @@
         <f t="shared" ref="H34:H65" si="3">E34-F34</f>
         <v>36.599999999999994</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2022</v>
       </c>
@@ -16443,8 +16656,14 @@
         <f t="shared" si="3"/>
         <v>16.939999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -16471,8 +16690,14 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2022</v>
       </c>
@@ -16499,8 +16724,14 @@
         <f t="shared" si="3"/>
         <v>35.239999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2022</v>
       </c>
@@ -16527,8 +16758,14 @@
         <f t="shared" si="3"/>
         <v>15.679999999999993</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -16555,8 +16792,14 @@
         <f t="shared" si="3"/>
         <v>29.620000000000005</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2022</v>
       </c>
@@ -16583,8 +16826,14 @@
         <f t="shared" si="3"/>
         <v>33.740000000000009</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2022</v>
       </c>
@@ -16611,8 +16860,14 @@
         <f t="shared" si="3"/>
         <v>39.379999999999995</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2022</v>
       </c>
@@ -16639,8 +16894,14 @@
         <f t="shared" si="3"/>
         <v>48.960000000000008</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2022</v>
       </c>
@@ -16667,8 +16928,14 @@
         <f t="shared" si="3"/>
         <v>39.100000000000009</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2022</v>
       </c>
@@ -16695,8 +16962,14 @@
         <f t="shared" si="3"/>
         <v>47.540000000000006</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -16723,8 +16996,14 @@
         <f t="shared" si="3"/>
         <v>12.459999999999994</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2022</v>
       </c>
@@ -16751,8 +17030,14 @@
         <f t="shared" si="3"/>
         <v>84.47999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -16779,8 +17064,14 @@
         <f t="shared" si="3"/>
         <v>37.339999999999989</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2022</v>
       </c>
@@ -16807,8 +17098,14 @@
         <f t="shared" si="3"/>
         <v>69.039999999999992</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2022</v>
       </c>
@@ -16835,8 +17132,14 @@
         <f t="shared" si="3"/>
         <v>43.720000000000013</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2022</v>
       </c>
@@ -16863,8 +17166,14 @@
         <f t="shared" si="3"/>
         <v>7.4399999999999977</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2022</v>
       </c>
@@ -16891,8 +17200,14 @@
         <f t="shared" si="3"/>
         <v>6.5400000000000063</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2022</v>
       </c>
@@ -16919,8 +17234,14 @@
         <f t="shared" si="3"/>
         <v>8.7999999999999972</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2022</v>
       </c>
@@ -16947,8 +17268,14 @@
         <f t="shared" si="3"/>
         <v>20.120000000000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2022</v>
       </c>
@@ -16975,8 +17302,14 @@
         <f t="shared" si="3"/>
         <v>17.599999999999994</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2022</v>
       </c>
@@ -17003,8 +17336,14 @@
         <f t="shared" si="3"/>
         <v>70.72</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2022</v>
       </c>
@@ -17031,8 +17370,14 @@
         <f t="shared" si="3"/>
         <v>19.47999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2022</v>
       </c>
@@ -17059,8 +17404,14 @@
         <f t="shared" si="3"/>
         <v>3.5999999999999943</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2022</v>
       </c>
@@ -17087,8 +17438,14 @@
         <f t="shared" si="3"/>
         <v>11.920000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2022</v>
       </c>
@@ -17115,8 +17472,14 @@
         <f t="shared" si="3"/>
         <v>15.700000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2022</v>
       </c>
@@ -17143,8 +17506,14 @@
         <f t="shared" si="3"/>
         <v>25.36</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2022</v>
       </c>
@@ -17171,8 +17540,14 @@
         <f t="shared" si="3"/>
         <v>61.999999999999986</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2022</v>
       </c>
@@ -17199,8 +17574,14 @@
         <f t="shared" si="3"/>
         <v>29.620000000000005</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2022</v>
       </c>
@@ -17227,8 +17608,14 @@
         <f t="shared" si="3"/>
         <v>10.079999999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2022</v>
       </c>
@@ -17255,8 +17642,14 @@
         <f t="shared" si="3"/>
         <v>31.900000000000006</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2022</v>
       </c>
@@ -17283,8 +17676,14 @@
         <f t="shared" si="3"/>
         <v>48.079999999999984</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2022</v>
       </c>
@@ -17304,15 +17703,21 @@
         <v>99.6</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G97" si="4">SUM(E66:F66)</f>
+        <f t="shared" ref="G66:G91" si="4">SUM(E66:F66)</f>
         <v>250.06</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H91" si="5">E66-F66</f>
         <v>50.860000000000014</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2022</v>
       </c>
@@ -17339,8 +17744,14 @@
         <f t="shared" si="5"/>
         <v>2.1999999999999886</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2022</v>
       </c>
@@ -17367,8 +17778,14 @@
         <f t="shared" si="5"/>
         <v>11.920000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2022</v>
       </c>
@@ -17395,8 +17812,14 @@
         <f t="shared" si="5"/>
         <v>23.060000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2022</v>
       </c>
@@ -17423,8 +17846,14 @@
         <f t="shared" si="5"/>
         <v>2.5400000000000063</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2022</v>
       </c>
@@ -17451,8 +17880,14 @@
         <f t="shared" si="5"/>
         <v>3.2800000000000011</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2022</v>
       </c>
@@ -17479,8 +17914,14 @@
         <f t="shared" si="5"/>
         <v>32.159999999999997</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>36</v>
+      </c>
+      <c r="J72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2022</v>
       </c>
@@ -17507,8 +17948,14 @@
         <f t="shared" si="5"/>
         <v>64.98</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2022</v>
       </c>
@@ -17535,8 +17982,14 @@
         <f t="shared" si="5"/>
         <v>37.58</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2022</v>
       </c>
@@ -17563,8 +18016,14 @@
         <f t="shared" si="5"/>
         <v>8.2000000000000028</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2022</v>
       </c>
@@ -17591,8 +18050,14 @@
         <f t="shared" si="5"/>
         <v>3.5600000000000023</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>34</v>
+      </c>
+      <c r="J76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2022</v>
       </c>
@@ -17619,8 +18084,14 @@
         <f t="shared" si="5"/>
         <v>12.719999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>46</v>
+      </c>
+      <c r="J77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2022</v>
       </c>
@@ -17647,8 +18118,14 @@
         <f t="shared" si="5"/>
         <v>70.100000000000009</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2022</v>
       </c>
@@ -17675,8 +18152,14 @@
         <f t="shared" si="5"/>
         <v>45.239999999999981</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>36</v>
+      </c>
+      <c r="J79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2022</v>
       </c>
@@ -17703,8 +18186,14 @@
         <f t="shared" si="5"/>
         <v>18.78</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2022</v>
       </c>
@@ -17731,8 +18220,14 @@
         <f t="shared" si="5"/>
         <v>30.200000000000003</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2022</v>
       </c>
@@ -17759,8 +18254,14 @@
         <f t="shared" si="5"/>
         <v>61.060000000000016</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>36</v>
+      </c>
+      <c r="J82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2022</v>
       </c>
@@ -17787,8 +18288,14 @@
         <f t="shared" si="5"/>
         <v>13.739999999999995</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2022</v>
       </c>
@@ -17815,8 +18322,14 @@
         <f t="shared" si="5"/>
         <v>75.800000000000011</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2022</v>
       </c>
@@ -17843,8 +18356,14 @@
         <f t="shared" si="5"/>
         <v>3.539999999999992</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2022</v>
       </c>
@@ -17871,8 +18390,14 @@
         <f t="shared" si="5"/>
         <v>57.78</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2022</v>
       </c>
@@ -17899,8 +18424,14 @@
         <f t="shared" si="5"/>
         <v>10.660000000000011</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2022</v>
       </c>
@@ -17927,8 +18458,14 @@
         <f t="shared" si="5"/>
         <v>21.060000000000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>30</v>
+      </c>
+      <c r="J88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2022</v>
       </c>
@@ -17955,8 +18492,14 @@
         <f t="shared" si="5"/>
         <v>24.400000000000006</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2022</v>
       </c>
@@ -17983,8 +18526,14 @@
         <f t="shared" si="5"/>
         <v>2.7800000000000011</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>46</v>
+      </c>
+      <c r="J90" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2022</v>
       </c>
@@ -18011,8 +18560,15 @@
         <f t="shared" si="5"/>
         <v>17.740000000000009</v>
       </c>
+      <c r="I91" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J91"/>
   <sortState ref="A2:H91">
     <sortCondition ref="B1"/>
   </sortState>
@@ -18047,7 +18603,7 @@
   <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18062,16 +18618,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="293" t="s">
+      <c r="B2" s="307" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="295"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="309"/>
     </row>
     <row r="3" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="241" t="s">
@@ -18454,15 +19010,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="298" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="286"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="300"/>
     </row>
     <row r="3" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="156" t="s">
